--- a/Experiment_4/Exp4_Analysis.xlsx
+++ b/Experiment_4/Exp4_Analysis.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\harsh\GitHub\EE324-Control-Systems-Lab\Experiment_4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15B7E93D-D523-464B-A4B8-091708C2742F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35FD5A02-8C02-49FE-9DAA-4823F8D3D178}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14476" xr2:uid="{30CF7E55-AA48-4513-BE12-A4EAC86F92B2}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14476" activeTab="2" xr2:uid="{30CF7E55-AA48-4513-BE12-A4EAC86F92B2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="8">
   <si>
     <t>Vin (pp)</t>
   </si>
@@ -2602,6 +2604,1736 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Gain in dB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$B$2:$B$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.3010299956639813</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.4771212547196626</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.6020599913279625</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.6989700043360187</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.7781512503836434</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.8450980400142569</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.9030899869919438</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.9542425094393248</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.0969100130080562</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.1760912590556813</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.2430380486862944</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.3010299956639813</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.3521825181113627</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.3979400086720375</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.4393326938302629</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.4771212547196626</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.5118833609788744</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.5440680443502757</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.5740312677277188</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.6020599913279625</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.6283889300503116</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.6532125137753435</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3.6766936096248664</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3.6989700043360187</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$H$2:$H$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>-6.6739822483469879</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-7.5290218567659846</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-9.9285281983009828</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-10.756381901465485</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-11.201909795688529</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-11.201909795688529</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-10.54190459363002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-10.332595920066721</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-9.5424250943932485</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-9.3556245693103826</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-7.0909850278093902</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-6.1474034739000052</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-7.0747269235996839</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-8.9669902429927593</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-7.8700168828458583</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-9.2648970247134805</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-8.7866538766052535</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-7.398225701435881</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-6.1356464910614505</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-5.684329933086623</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-5.1620359024434057</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-4.762614283831005</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-4.6655642279427649</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-4.3807554456505589</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-5.3688525692077826</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-7.245993048058077</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E97D-455A-9FF3-D8BDCBCA7FFA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="365817199"/>
+        <c:axId val="365827279"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="365817199"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="2"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="365827279"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="365827279"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="365817199"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>phase</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$B$2:$B$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.3010299956639813</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.4771212547196626</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.6020599913279625</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.6989700043360187</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.7781512503836434</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.8450980400142569</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.9030899869919438</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.9542425094393248</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.0969100130080562</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.1760912590556813</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.2430380486862944</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.3010299956639813</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.3521825181113627</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.3979400086720375</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.4393326938302629</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.4771212547196626</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.5118833609788744</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.5440680443502757</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.5740312677277188</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.6020599913279625</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.6283889300503116</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.6532125137753435</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3.6766936096248664</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3.6989700043360187</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$D$2:$D$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>59.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.88</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-13</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-18.7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-21.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-15.1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-13.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-12.9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-25.3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-16.3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-37.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-60.4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-83.7</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-94</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-104</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-118</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-133</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-141</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-157</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-178</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-198</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-223</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-248</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-275.2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-308.10000000000002</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-340.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-326C-4439-B540-C4AC8B6B1E78}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1036397391"/>
+        <c:axId val="1036404591"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1036397391"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="2"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1036404591"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1036404591"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1036397391"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Gain in dB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet3!$B$2:$B$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.3010299956639813</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.4771212547196626</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.6020599913279625</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.6989700043360187</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.7781512503836434</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.8450980400142569</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.9030899869919438</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.9542425094393248</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.1760912590556813</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.3010299956639813</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.3979400086720375</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.4771212547196626</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.5440680443502757</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.6020599913279625</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.6532125137753435</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.6989700043360187</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet3!$H$2:$H$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>-3.349821745875273</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-2.6153656053804761</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-2.8533500713746314</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-2.1581079461903916</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-3.349821745875273</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-2.8533500713746314</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-1.3100309751286456</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.175478486150103</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.82785370316450158</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.82785370316450158</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.4831569852735962</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.4369749923271282</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.1655603048606258</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.0205999132796242</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8.1023718659832191</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8.6913780806839753</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8.7711571916060311</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5.84512142712952</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-89A8-40ED-ABA5-872E8D2767AE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1762833776"/>
+        <c:axId val="1762832816"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1762833776"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1762832816"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1762832816"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1762833776"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>phase</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet3!$B$2:$B$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.3010299956639813</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.4771212547196626</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.6020599913279625</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.6989700043360187</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.7781512503836434</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.8450980400142569</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.9030899869919438</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.9542425094393248</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.1760912590556813</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.3010299956639813</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.3979400086720375</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.4771212547196626</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.5440680443502757</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.6020599913279625</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.6532125137753435</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.6989700043360187</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet3!$D$2:$D$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>-102</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-136</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-171</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-167</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-171</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-150</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-168</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-148</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-180</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-148</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-315</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-326</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-262.89999999999998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-234</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-195.7</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-138.80000000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-83.9</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-26</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1544-43D4-B441-1834420D3963}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2026079792"/>
+        <c:axId val="2026088432"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2026079792"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2026088432"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2026088432"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2026079792"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2802,6 +4534,166 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -4867,6 +6759,2070 @@
 </file>
 
 <file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5571,6 +9527,162 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>639961</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>9922</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>28178</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>36116</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E42F406-5368-4573-9462-14A013764D0D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>645914</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>39787</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>18852</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>104081</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7CF0C74-013C-36FE-1CBE-2F6852BA51B8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>459581</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>497681</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1856AD9D-3B10-A7B5-F7F0-D2CD99FF9CF6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>469106</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>507206</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7FE47F4-669C-10AB-7D61-EB284D18AFA2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -5870,8 +9982,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B94827AC-3241-45DF-A2EA-807263296695}">
   <dimension ref="B1:L54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="112" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView topLeftCell="G1" zoomScale="106" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -5935,7 +10047,7 @@
         <v>200</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D27" si="1">-180-D30</f>
+        <f t="shared" ref="D3:D21" si="1">-180-D30</f>
         <v>-143.9</v>
       </c>
       <c r="E3">
@@ -6751,4 +10863,1491 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DB1F358-7CEA-405F-9A39-2E5DC5B28A1D}">
+  <dimension ref="B1:H54"/>
+  <sheetViews>
+    <sheetView zoomScale="105" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B2">
+        <f>LOG10(C2)</f>
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>100</v>
+      </c>
+      <c r="D2">
+        <f>-D29</f>
+        <v>59.8</v>
+      </c>
+      <c r="E2">
+        <v>0.55200000000000005</v>
+      </c>
+      <c r="F2">
+        <v>0.25600000000000001</v>
+      </c>
+      <c r="G2">
+        <f>F2/E2</f>
+        <v>0.46376811594202894</v>
+      </c>
+      <c r="H2">
+        <f>20*LOG10(G2)</f>
+        <v>-6.6739822483469879</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B3">
+        <f t="shared" ref="B3:B27" si="0">LOG10(C3)</f>
+        <v>2.3010299956639813</v>
+      </c>
+      <c r="C3">
+        <v>200</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D21" si="1">-D30</f>
+        <v>2.88</v>
+      </c>
+      <c r="E3">
+        <v>0.55200000000000005</v>
+      </c>
+      <c r="F3">
+        <v>0.23200000000000001</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G27" si="2">F3/E3</f>
+        <v>0.42028985507246375</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H27" si="3">20*LOG10(G3)</f>
+        <v>-7.5290218567659846</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B4">
+        <f t="shared" si="0"/>
+        <v>2.4771212547196626</v>
+      </c>
+      <c r="C4">
+        <v>300</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="1"/>
+        <v>-13</v>
+      </c>
+      <c r="E4">
+        <v>0.55200000000000005</v>
+      </c>
+      <c r="F4">
+        <v>0.17599999999999999</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="2"/>
+        <v>0.3188405797101449</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="3"/>
+        <v>-9.9285281983009828</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B5">
+        <f t="shared" si="0"/>
+        <v>2.6020599913279625</v>
+      </c>
+      <c r="C5">
+        <v>400</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="1"/>
+        <v>-18.7</v>
+      </c>
+      <c r="E5">
+        <v>0.55200000000000005</v>
+      </c>
+      <c r="F5">
+        <v>0.16</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="2"/>
+        <v>0.28985507246376807</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="3"/>
+        <v>-10.756381901465485</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B6">
+        <f t="shared" si="0"/>
+        <v>2.6989700043360187</v>
+      </c>
+      <c r="C6">
+        <v>500</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="1"/>
+        <v>-21.8</v>
+      </c>
+      <c r="E6">
+        <v>0.55200000000000005</v>
+      </c>
+      <c r="F6">
+        <v>0.152</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="2"/>
+        <v>0.27536231884057966</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="3"/>
+        <v>-11.201909795688529</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B7">
+        <f t="shared" si="0"/>
+        <v>2.7781512503836434</v>
+      </c>
+      <c r="C7">
+        <v>600</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="1"/>
+        <v>-15.1</v>
+      </c>
+      <c r="E7">
+        <v>0.55200000000000005</v>
+      </c>
+      <c r="F7">
+        <v>0.152</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="2"/>
+        <v>0.27536231884057966</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="3"/>
+        <v>-11.201909795688529</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B8">
+        <f t="shared" si="0"/>
+        <v>2.8450980400142569</v>
+      </c>
+      <c r="C8">
+        <v>700</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="1"/>
+        <v>-13.5</v>
+      </c>
+      <c r="E8">
+        <v>0.55200000000000005</v>
+      </c>
+      <c r="F8">
+        <v>0.16400000000000001</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="2"/>
+        <v>0.29710144927536231</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="3"/>
+        <v>-10.54190459363002</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B9">
+        <f t="shared" si="0"/>
+        <v>2.9030899869919438</v>
+      </c>
+      <c r="C9">
+        <v>800</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="1"/>
+        <v>-12.9</v>
+      </c>
+      <c r="E9">
+        <v>0.55200000000000005</v>
+      </c>
+      <c r="F9">
+        <v>0.16800000000000001</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="2"/>
+        <v>0.30434782608695654</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="3"/>
+        <v>-10.332595920066721</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B10">
+        <f t="shared" si="0"/>
+        <v>2.9542425094393248</v>
+      </c>
+      <c r="C10">
+        <v>900</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="1"/>
+        <v>-25.3</v>
+      </c>
+      <c r="E10">
+        <v>0.55200000000000005</v>
+      </c>
+      <c r="F10">
+        <v>0.184</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="2"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="3"/>
+        <v>-9.5424250943932485</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B11">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C11">
+        <v>1000</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="1"/>
+        <v>-16.3</v>
+      </c>
+      <c r="E11">
+        <v>0.55200000000000005</v>
+      </c>
+      <c r="F11">
+        <v>0.188</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="2"/>
+        <v>0.34057971014492749</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="3"/>
+        <v>-9.3556245693103826</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B12">
+        <f t="shared" si="0"/>
+        <v>3.0969100130080562</v>
+      </c>
+      <c r="C12">
+        <v>1250</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="1"/>
+        <v>-37.799999999999997</v>
+      </c>
+      <c r="E12">
+        <v>0.55200000000000005</v>
+      </c>
+      <c r="F12">
+        <v>0.24399999999999999</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="2"/>
+        <v>0.44202898550724634</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="3"/>
+        <v>-7.0909850278093902</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B13">
+        <f t="shared" si="0"/>
+        <v>3.1760912590556813</v>
+      </c>
+      <c r="C13">
+        <v>1500</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="1"/>
+        <v>-60.4</v>
+      </c>
+      <c r="E13">
+        <v>0.55200000000000005</v>
+      </c>
+      <c r="F13">
+        <v>0.27200000000000002</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="2"/>
+        <v>0.49275362318840576</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="3"/>
+        <v>-6.1474034739000052</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B14">
+        <f t="shared" si="0"/>
+        <v>3.2430380486862944</v>
+      </c>
+      <c r="C14">
+        <v>1750</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="1"/>
+        <v>-83.7</v>
+      </c>
+      <c r="E14">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="F14">
+        <v>0.248</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="2"/>
+        <v>0.44285714285714284</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="3"/>
+        <v>-7.0747269235996839</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B15">
+        <f t="shared" si="0"/>
+        <v>3.3010299956639813</v>
+      </c>
+      <c r="C15">
+        <v>2000</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="1"/>
+        <v>-94</v>
+      </c>
+      <c r="E15">
+        <v>0.58399999999999996</v>
+      </c>
+      <c r="F15">
+        <v>0.20799999999999999</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="2"/>
+        <v>0.35616438356164382</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="3"/>
+        <v>-8.9669902429927593</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B16">
+        <f t="shared" si="0"/>
+        <v>3.3521825181113627</v>
+      </c>
+      <c r="C16">
+        <v>2250</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="1"/>
+        <v>-104</v>
+      </c>
+      <c r="E16">
+        <v>0.58399999999999996</v>
+      </c>
+      <c r="F16">
+        <v>0.23599999999999999</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="2"/>
+        <v>0.4041095890410959</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="3"/>
+        <v>-7.8700168828458583</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B17">
+        <f t="shared" si="0"/>
+        <v>3.3979400086720375</v>
+      </c>
+      <c r="C17">
+        <v>2500</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="1"/>
+        <v>-118</v>
+      </c>
+      <c r="E17">
+        <v>0.61599999999999999</v>
+      </c>
+      <c r="F17">
+        <v>0.21199999999999999</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="2"/>
+        <v>0.34415584415584416</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="3"/>
+        <v>-9.2648970247134805</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B18">
+        <f t="shared" si="0"/>
+        <v>3.4393326938302629</v>
+      </c>
+      <c r="C18">
+        <v>2750</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="1"/>
+        <v>-133</v>
+      </c>
+      <c r="E18">
+        <v>0.61599999999999999</v>
+      </c>
+      <c r="F18">
+        <v>0.224</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="2"/>
+        <v>0.36363636363636365</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="3"/>
+        <v>-8.7866538766052535</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B19">
+        <f t="shared" si="0"/>
+        <v>3.4771212547196626</v>
+      </c>
+      <c r="C19">
+        <v>3000</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="1"/>
+        <v>-141</v>
+      </c>
+      <c r="E19">
+        <v>0.6</v>
+      </c>
+      <c r="F19">
+        <v>0.25600000000000001</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="2"/>
+        <v>0.42666666666666669</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="3"/>
+        <v>-7.398225701435881</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B20">
+        <f t="shared" si="0"/>
+        <v>3.5118833609788744</v>
+      </c>
+      <c r="C20">
+        <v>3250</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="1"/>
+        <v>-157</v>
+      </c>
+      <c r="E20">
+        <v>0.60799999999999998</v>
+      </c>
+      <c r="F20">
+        <v>0.3</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="2"/>
+        <v>0.49342105263157893</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="3"/>
+        <v>-6.1356464910614505</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B21">
+        <f t="shared" si="0"/>
+        <v>3.5440680443502757</v>
+      </c>
+      <c r="C21">
+        <v>3500</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="1"/>
+        <v>-178</v>
+      </c>
+      <c r="E21">
+        <v>0.60799999999999998</v>
+      </c>
+      <c r="F21">
+        <v>0.316</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="2"/>
+        <v>0.51973684210526316</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="3"/>
+        <v>-5.684329933086623</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B22">
+        <f t="shared" si="0"/>
+        <v>3.5740312677277188</v>
+      </c>
+      <c r="C22">
+        <v>3750</v>
+      </c>
+      <c r="D22">
+        <f>-180*2-D49</f>
+        <v>-198</v>
+      </c>
+      <c r="E22">
+        <v>0.61599999999999999</v>
+      </c>
+      <c r="F22">
+        <v>0.34</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="2"/>
+        <v>0.55194805194805197</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="3"/>
+        <v>-5.1620359024434057</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B23">
+        <f t="shared" si="0"/>
+        <v>3.6020599913279625</v>
+      </c>
+      <c r="C23">
+        <v>4000</v>
+      </c>
+      <c r="D23">
+        <f t="shared" ref="D23:D27" si="4">-180*2-D50</f>
+        <v>-223</v>
+      </c>
+      <c r="E23">
+        <v>0.61599999999999999</v>
+      </c>
+      <c r="F23">
+        <v>0.35599999999999998</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="2"/>
+        <v>0.57792207792207795</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="3"/>
+        <v>-4.762614283831005</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B24">
+        <f t="shared" si="0"/>
+        <v>3.6283889300503116</v>
+      </c>
+      <c r="C24">
+        <v>4250</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="4"/>
+        <v>-248</v>
+      </c>
+      <c r="E24">
+        <v>0.61599999999999999</v>
+      </c>
+      <c r="F24">
+        <v>0.36</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="2"/>
+        <v>0.58441558441558439</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="3"/>
+        <v>-4.6655642279427649</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B25">
+        <f t="shared" si="0"/>
+        <v>3.6532125137753435</v>
+      </c>
+      <c r="C25">
+        <v>4500</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="4"/>
+        <v>-275.2</v>
+      </c>
+      <c r="E25">
+        <v>0.61599999999999999</v>
+      </c>
+      <c r="F25">
+        <v>0.372</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="2"/>
+        <v>0.60389610389610393</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="3"/>
+        <v>-4.3807554456505589</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B26">
+        <f t="shared" si="0"/>
+        <v>3.6766936096248664</v>
+      </c>
+      <c r="C26">
+        <v>4750</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="4"/>
+        <v>-308.10000000000002</v>
+      </c>
+      <c r="E26">
+        <v>0.61599999999999999</v>
+      </c>
+      <c r="F26">
+        <v>0.33200000000000002</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="2"/>
+        <v>0.53896103896103897</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="3"/>
+        <v>-5.3688525692077826</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B27">
+        <f t="shared" si="0"/>
+        <v>3.6989700043360187</v>
+      </c>
+      <c r="C27">
+        <v>5000</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="4"/>
+        <v>-340.6</v>
+      </c>
+      <c r="E27">
+        <v>0.60799999999999998</v>
+      </c>
+      <c r="F27">
+        <v>0.26400000000000001</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="2"/>
+        <v>0.43421052631578949</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="3"/>
+        <v>-7.245993048058077</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="D29">
+        <v>-59.8</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="D30">
+        <v>-2.88</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="D31">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="D32">
+        <v>18.7</v>
+      </c>
+    </row>
+    <row r="33" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D33">
+        <v>21.8</v>
+      </c>
+    </row>
+    <row r="34" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D34">
+        <v>15.1</v>
+      </c>
+    </row>
+    <row r="35" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D35">
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="36" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D36">
+        <v>12.9</v>
+      </c>
+    </row>
+    <row r="37" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D37">
+        <v>25.3</v>
+      </c>
+    </row>
+    <row r="38" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D38">
+        <v>16.3</v>
+      </c>
+    </row>
+    <row r="39" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D39">
+        <v>37.799999999999997</v>
+      </c>
+    </row>
+    <row r="40" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D40">
+        <v>60.4</v>
+      </c>
+    </row>
+    <row r="41" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D41">
+        <v>83.7</v>
+      </c>
+    </row>
+    <row r="42" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D42">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="43" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D43">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="44" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D44">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="45" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D45">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="46" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D46">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="47" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D47">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="48" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D48">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="49" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D49">
+        <v>-162</v>
+      </c>
+    </row>
+    <row r="50" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D50">
+        <v>-137</v>
+      </c>
+    </row>
+    <row r="51" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D51">
+        <v>-112</v>
+      </c>
+    </row>
+    <row r="52" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D52">
+        <v>-84.8</v>
+      </c>
+    </row>
+    <row r="53" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D53">
+        <v>-51.9</v>
+      </c>
+    </row>
+    <row r="54" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D54">
+        <v>-19.399999999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A5CE6BB-7096-40F3-AB04-5A9C14E4A8D4}">
+  <dimension ref="B1:H39"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B2">
+        <f>LOG10(C2)</f>
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>100</v>
+      </c>
+      <c r="D2">
+        <f>D22</f>
+        <v>-102</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>0.68</v>
+      </c>
+      <c r="G2">
+        <f>F2/E2</f>
+        <v>0.68</v>
+      </c>
+      <c r="H2">
+        <f>20*LOG10(G2)</f>
+        <v>-3.349821745875273</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B3">
+        <f t="shared" ref="B3:B27" si="0">LOG10(C3)</f>
+        <v>2.3010299956639813</v>
+      </c>
+      <c r="C3">
+        <v>200</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D19" si="1">D23</f>
+        <v>-136</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>0.74</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G27" si="2">F3/E3</f>
+        <v>0.74</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H27" si="3">20*LOG10(G3)</f>
+        <v>-2.6153656053804761</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B4">
+        <f t="shared" si="0"/>
+        <v>2.4771212547196626</v>
+      </c>
+      <c r="C4">
+        <v>300</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="1"/>
+        <v>-171</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>0.72</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="2"/>
+        <v>0.72</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="3"/>
+        <v>-2.8533500713746314</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B5">
+        <f t="shared" si="0"/>
+        <v>2.6020599913279625</v>
+      </c>
+      <c r="C5">
+        <v>400</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="1"/>
+        <v>-167</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0.78</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="2"/>
+        <v>0.78</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="3"/>
+        <v>-2.1581079461903916</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B6">
+        <f t="shared" si="0"/>
+        <v>2.6989700043360187</v>
+      </c>
+      <c r="C6">
+        <v>500</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="1"/>
+        <v>-171</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0.68</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="2"/>
+        <v>0.68</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="3"/>
+        <v>-3.349821745875273</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B7">
+        <f t="shared" si="0"/>
+        <v>2.7781512503836434</v>
+      </c>
+      <c r="C7">
+        <v>600</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="1"/>
+        <v>-150</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.72</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="2"/>
+        <v>0.72</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="3"/>
+        <v>-2.8533500713746314</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B8">
+        <f t="shared" si="0"/>
+        <v>2.8450980400142569</v>
+      </c>
+      <c r="C8">
+        <v>700</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="1"/>
+        <v>-168</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.86</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="2"/>
+        <v>0.86</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="3"/>
+        <v>-1.3100309751286456</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B9">
+        <f t="shared" si="0"/>
+        <v>2.9030899869919438</v>
+      </c>
+      <c r="C9">
+        <v>800</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="1"/>
+        <v>-148</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.98</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="2"/>
+        <v>0.98</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="3"/>
+        <v>-0.175478486150103</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B10">
+        <f t="shared" si="0"/>
+        <v>2.9542425094393248</v>
+      </c>
+      <c r="C10">
+        <v>900</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="1"/>
+        <v>-180</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="2"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="3"/>
+        <v>0.82785370316450158</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B11">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C11">
+        <v>1000</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="1"/>
+        <v>-148</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="2"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="3"/>
+        <v>0.82785370316450158</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B12">
+        <f t="shared" si="0"/>
+        <v>3.1760912590556813</v>
+      </c>
+      <c r="C12">
+        <v>1500</v>
+      </c>
+      <c r="D12">
+        <f>-180-D32</f>
+        <v>-315</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>1.88</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="2"/>
+        <v>1.88</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="3"/>
+        <v>5.4831569852735962</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B13">
+        <f t="shared" si="0"/>
+        <v>3.3010299956639813</v>
+      </c>
+      <c r="C13">
+        <v>2000</v>
+      </c>
+      <c r="D13">
+        <f>-180-D33</f>
+        <v>-326</v>
+      </c>
+      <c r="E13">
+        <v>0.96</v>
+      </c>
+      <c r="F13">
+        <v>1.6</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="2"/>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="3"/>
+        <v>4.4369749923271282</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B14">
+        <f t="shared" si="0"/>
+        <v>3.3979400086720375</v>
+      </c>
+      <c r="C14">
+        <v>2500</v>
+      </c>
+      <c r="D14">
+        <f t="shared" ref="D13:D19" si="4">-180-D34</f>
+        <v>-262.89999999999998</v>
+      </c>
+      <c r="E14">
+        <v>0.96</v>
+      </c>
+      <c r="F14">
+        <v>1.74</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="2"/>
+        <v>1.8125</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="3"/>
+        <v>5.1655603048606258</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B15">
+        <f t="shared" si="0"/>
+        <v>3.4771212547196626</v>
+      </c>
+      <c r="C15">
+        <v>3000</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="4"/>
+        <v>-234</v>
+      </c>
+      <c r="E15">
+        <v>0.96</v>
+      </c>
+      <c r="F15">
+        <v>1.92</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="3"/>
+        <v>6.0205999132796242</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B16">
+        <f t="shared" si="0"/>
+        <v>3.5440680443502757</v>
+      </c>
+      <c r="C16">
+        <v>3500</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="4"/>
+        <v>-195.7</v>
+      </c>
+      <c r="E16">
+        <v>0.96</v>
+      </c>
+      <c r="F16">
+        <v>2.44</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="2"/>
+        <v>2.5416666666666665</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="3"/>
+        <v>8.1023718659832191</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B17">
+        <f t="shared" si="0"/>
+        <v>3.6020599913279625</v>
+      </c>
+      <c r="C17">
+        <v>4000</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="4"/>
+        <v>-138.80000000000001</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>2.72</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="2"/>
+        <v>2.72</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="3"/>
+        <v>8.6913780806839753</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B18">
+        <f t="shared" si="0"/>
+        <v>3.6532125137753435</v>
+      </c>
+      <c r="C18">
+        <v>4500</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="4"/>
+        <v>-83.9</v>
+      </c>
+      <c r="E18">
+        <v>1.02</v>
+      </c>
+      <c r="F18">
+        <v>2.8</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="2"/>
+        <v>2.7450980392156858</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="3"/>
+        <v>8.7711571916060311</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B19">
+        <f t="shared" si="0"/>
+        <v>3.6989700043360187</v>
+      </c>
+      <c r="C19">
+        <v>5000</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="4"/>
+        <v>-26</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>1.96</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="2"/>
+        <v>1.96</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="3"/>
+        <v>5.84512142712952</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="D22">
+        <v>-102</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="D23">
+        <v>-136</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="D24">
+        <v>-171</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="D25">
+        <v>-167</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="D26">
+        <v>-171</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="D27">
+        <v>-150</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="D28">
+        <v>-168</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="D29">
+        <v>-148</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="D30">
+        <v>-180</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="D31">
+        <v>-148</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="D32">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="33" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D33">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="34" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D34">
+        <v>82.9</v>
+      </c>
+    </row>
+    <row r="35" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D35">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="36" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D36">
+        <v>15.7</v>
+      </c>
+    </row>
+    <row r="37" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D37">
+        <v>-41.2</v>
+      </c>
+    </row>
+    <row r="38" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D38">
+        <v>-96.1</v>
+      </c>
+    </row>
+    <row r="39" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D39">
+        <v>-154</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Experiment_4/Exp4_Analysis.xlsx
+++ b/Experiment_4/Exp4_Analysis.xlsx
@@ -1,21 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\harsh\GitHub\EE324-Control-Systems-Lab\Experiment_4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35FD5A02-8C02-49FE-9DAA-4823F8D3D178}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF6060A6-62F6-4FEF-8895-B6D04C0E82EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14476" activeTab="2" xr2:uid="{30CF7E55-AA48-4513-BE12-A4EAC86F92B2}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14476" activeTab="5" xr2:uid="{30CF7E55-AA48-4513-BE12-A4EAC86F92B2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="8">
   <si>
     <t>Vin (pp)</t>
   </si>
@@ -619,6 +622,2699 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="1884986944"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet4!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Gain in dB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet4!$B$2:$B$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.3010299956639813</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.4771212547196626</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.6020599913279625</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.6989700043360187</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.7781512503836434</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.8450980400142569</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.9030899869919438</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.9542425094393248</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.0969100130080562</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.1760912590556813</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.2430380486862944</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.3010299956639813</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.3521825181113627</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.3979400086720375</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.4771212547196626</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.4771212547196626</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.5440680443502757</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.6020599913279625</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.6532125137753435</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.6989700043360187</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet4!$H$2:$H$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>7.2416792214791839</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.9521227541067265</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.3423363111487197</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.0205999132796242</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.7902391548953247</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.4041360509875913</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.9770396799781915</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.1599072687755863</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.1599072687755863</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.5144826079842177</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.0205999132796242</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.8551493939598265</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.0000683292218513</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.3563746617938266</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.1599072687755863</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.4041360509875913</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5.1599072687755863</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6.6525796347136694</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6.9521227541067265</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7.9259612321012165</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>8.3120643360089481</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4.7902391548953247</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A5D5-4F58-AF67-E1A0B2B6550C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1816950736"/>
+        <c:axId val="1816925296"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1816950736"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="2"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1816925296"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1816925296"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1816950736"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet4!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>phase</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet4!$B$2:$B$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.3010299956639813</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.4771212547196626</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.6020599913279625</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.6989700043360187</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.7781512503836434</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.8450980400142569</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.9030899869919438</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.9542425094393248</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.0969100130080562</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.1760912590556813</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.2430380486862944</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.3010299956639813</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.3521825181113627</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.3979400086720375</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.4771212547196626</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.4771212547196626</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.5440680443502757</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.6020599913279625</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.6532125137753435</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.6989700043360187</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet4!$D$2:$D$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>84.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>153</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>96.4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>15.1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-4.5999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>31.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.8899999999999997</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-1.18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-16.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-243</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-530</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6638-4ADD-9AFF-840D3321A559}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2055468832"/>
+        <c:axId val="2055464032"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2055468832"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2055464032"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2055464032"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2055468832"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet5!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Gain in dB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet5!$B$2:$B$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.3010299956639813</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.4771212547196626</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.6020599913279625</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.6989700043360187</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.7781512503836434</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.8450980400142569</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.9030899869919438</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.9542425094393248</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.0969100130080562</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.1760912590556813</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.2430380486862944</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.3010299956639813</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.3521825181113627</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.3979400086720375</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.4393326938302629</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.4771212547196626</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.5118833609788744</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.5440680443502757</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.5740312677277188</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.6020599913279625</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.6283889300503116</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.6532125137753435</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3.6766936096248664</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3.6989700043360187</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet5!$H$2:$H$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>7.4322213989937689</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.4940211388326414</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.1743432597251693</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.728891586597828</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-1.087153246451855</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.90393497474514817</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.802344464159649</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.98436045340363276</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.802344464159649</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.49647167450064111</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.49647167450064111</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-1.2891597845383691</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-3.3266284353304991</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-2.6707781674043511</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-3.0253535066129826</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-3.2729287920284706</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-2.0397907707466274</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-0.83784322656354093</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-0.10279279304822113</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.39488116391514372</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.39942161861239966</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.39488116391514372</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-0.83784322656354093</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-3.0253535066129826</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2E4C-4CD9-8A60-5E82E8A817C6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1093789455"/>
+        <c:axId val="1093780815"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1093789455"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="2"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1093780815"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1093780815"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1093789455"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet5!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>phase</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet5!$B$2:$B$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.3010299956639813</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.4771212547196626</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.6020599913279625</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.6989700043360187</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.7781512503836434</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.8450980400142569</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.9030899869919438</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.9542425094393248</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.0969100130080562</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.1760912590556813</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.2430380486862944</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.3010299956639813</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.3521825181113627</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.3979400086720375</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.4393326938302629</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.4771212547196626</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.5118833609788744</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.5440680443502757</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.5740312677277188</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.6020599913279625</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.6283889300503116</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.6532125137753435</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3.6766936096248664</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3.6989700043360187</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet5!$D$2:$D$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>49.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>95.1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45.4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>83.4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44.6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>68.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>50.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>26.9</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.75</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-1.96</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-1.1599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-5.41</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-6.94</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-15.1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-28.6</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-40.299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-56.7</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-77.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-90.6</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-113</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-141</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-171</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4EFE-42B1-9B2B-5130BD9E1364}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="465676799"/>
+        <c:axId val="465671039"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="465676799"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="2"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="465671039"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="465671039"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="465676799"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet6!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Gain in dB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet6!$B$2:$B$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.3010299956639813</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.4771212547196626</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.6020599913279625</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.6989700043360187</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.7781512503836434</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.8450980400142569</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.9030899869919438</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.9542425094393248</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.0969100130080562</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.1760912590556813</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.2430380486862944</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.3010299956639813</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.3521825181113627</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.3979400086720375</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.4393326938302629</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.4771212547196626</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.5118833609788744</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.5440680443502757</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.5740312677277188</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.6020599913279625</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.6283889300503116</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.6532125137753435</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3.6766936096248664</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3.6989700043360187</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet6!$H$2:$H$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>-6.5471786877266069</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-6.4036069951841394</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-6.97443972003712</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-6.4036069951841394</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-7.1464431552754712</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-7.1464431552754712</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-6.8416438241407338</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-6.6696403889023825</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-6.2316035599457873</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-6.0903664701960514</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-4.5535658655416054</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-2.2027655748362309</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-1.3505247064569357</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-3.349821745875273</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-2.6624437132500227</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-2.2027655748362309</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-2.475643188167155</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-0.57448302523789496</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-0.500560114038621</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-3.2910669132384811</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-4.7915503315357597</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-6.8416438241407338</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-8.1308036086791038</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-9.2146167706298616</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-10.288911554869495</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-11.181818358695645</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4C75-4FCA-9D6B-89C577177A7A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="467703007"/>
+        <c:axId val="467713567"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="467703007"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="2"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="467713567"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="467713567"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="467703007"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet6!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>phase</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet6!$B$2:$B$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.3010299956639813</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.4771212547196626</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.6020599913279625</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.6989700043360187</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.7781512503836434</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.8450980400142569</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.9030899869919438</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.9542425094393248</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.0969100130080562</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.1760912590556813</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.2430380486862944</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.3010299956639813</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.3521825181113627</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.3979400086720375</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.4393326938302629</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.4771212547196626</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.5118833609788744</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.5440680443502757</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.5740312677277188</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.6020599913279625</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.6283889300503116</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.6532125137753435</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3.6766936096248664</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3.6989700043360187</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet6!$D$2:$D$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>34.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>31.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-38.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-47.1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-77.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-92</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-8.74</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-73.900000000000006</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-103</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-44.8</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-90.8</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-92</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-104</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-162</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-145</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-170</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-177</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>163</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>80.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>73.2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>38.9</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>37.5</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>10.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D48F-4FD7-9E1D-1C83DC5D5A0C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1093807215"/>
+        <c:axId val="1093808175"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1093807215"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="2"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1093808175"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1093808175"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1093807215"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4335,6 +7031,246 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors13.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors14.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors15.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -5210,6 +8146,3102 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style13.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style14.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style15.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -9683,6 +15715,237 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>30956</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>69056</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7C43A3A-2F00-3498-49BB-C47FDE2F5531}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>643194</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>18742</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>53258</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>73434</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9298A931-D1EF-BE62-6D01-CFA0B78FCFC8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>7143</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>45243</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20D47BCF-83B7-2E94-BF42-FE9D3AB2A12B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>7143</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>45243</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24D48AFF-4B07-54AF-853C-25C568BF8DD7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>11905</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>50005</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F648D29-4BD2-5C30-B5C0-0087626DC0D9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>645318</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>119063</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>35718</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>147638</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CBD07370-4E3C-8451-25B7-C88DE19E8451}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -9982,8 +16245,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B94827AC-3241-45DF-A2EA-807263296695}">
   <dimension ref="B1:L54"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScale="106" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView zoomScale="106" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -10869,8 +17132,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DB1F358-7CEA-405F-9A39-2E5DC5B28A1D}">
   <dimension ref="B1:H54"/>
   <sheetViews>
-    <sheetView zoomScale="105" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -11741,8 +18004,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A5CE6BB-7096-40F3-AB04-5A9C14E4A8D4}">
   <dimension ref="B1:H39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -11799,14 +18062,14 @@
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B3">
-        <f t="shared" ref="B3:B27" si="0">LOG10(C3)</f>
+        <f t="shared" ref="B3:B19" si="0">LOG10(C3)</f>
         <v>2.3010299956639813</v>
       </c>
       <c r="C3">
         <v>200</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D19" si="1">D23</f>
+        <f t="shared" ref="D3:D11" si="1">D23</f>
         <v>-136</v>
       </c>
       <c r="E3">
@@ -11816,11 +18079,11 @@
         <v>0.74</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G27" si="2">F3/E3</f>
+        <f t="shared" ref="G3:G19" si="2">F3/E3</f>
         <v>0.74</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H27" si="3">20*LOG10(G3)</f>
+        <f t="shared" ref="H3:H19" si="3">20*LOG10(G3)</f>
         <v>-2.6153656053804761</v>
       </c>
     </row>
@@ -12103,7 +18366,7 @@
         <v>2500</v>
       </c>
       <c r="D14">
-        <f t="shared" ref="D13:D19" si="4">-180-D34</f>
+        <f t="shared" ref="D14:D19" si="4">-180-D34</f>
         <v>-262.89999999999998</v>
       </c>
       <c r="E14">
@@ -12344,6 +18607,2203 @@
     <row r="39" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D39">
         <v>-154</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D499F2D2-FD1B-4A91-ADA8-5E87CFDF1DCE}">
+  <dimension ref="B1:H50"/>
+  <sheetViews>
+    <sheetView topLeftCell="G16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="R10" sqref="R10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B2">
+        <f>LOG10(C2)</f>
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>100</v>
+      </c>
+      <c r="D2">
+        <f>-D29</f>
+        <v>84.5</v>
+      </c>
+      <c r="E2">
+        <v>1.06</v>
+      </c>
+      <c r="F2">
+        <v>2.44</v>
+      </c>
+      <c r="G2">
+        <f>F2/E2</f>
+        <v>2.3018867924528301</v>
+      </c>
+      <c r="H2">
+        <f>20*LOG10(G2)</f>
+        <v>7.2416792214791839</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B3">
+        <f t="shared" ref="B3:B23" si="0">LOG10(C3)</f>
+        <v>2.3010299956639813</v>
+      </c>
+      <c r="C3">
+        <v>200</v>
+      </c>
+      <c r="D3">
+        <f>D30</f>
+        <v>153</v>
+      </c>
+      <c r="E3">
+        <v>1.06</v>
+      </c>
+      <c r="F3">
+        <v>2.36</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G23" si="1">F3/E3</f>
+        <v>2.2264150943396226</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H23" si="2">20*LOG10(G3)</f>
+        <v>6.9521227541067265</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B4">
+        <f t="shared" si="0"/>
+        <v>2.4771212547196626</v>
+      </c>
+      <c r="C4">
+        <v>300</v>
+      </c>
+      <c r="D4">
+        <f t="shared" ref="D4:D20" si="3">D31</f>
+        <v>155</v>
+      </c>
+      <c r="E4">
+        <v>1.06</v>
+      </c>
+      <c r="F4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="1"/>
+        <v>2.0754716981132075</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="2"/>
+        <v>6.3423363111487197</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B5">
+        <f t="shared" si="0"/>
+        <v>2.6020599913279625</v>
+      </c>
+      <c r="C5">
+        <v>400</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="3"/>
+        <v>138</v>
+      </c>
+      <c r="E5">
+        <v>1.06</v>
+      </c>
+      <c r="F5">
+        <v>2.12</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="2"/>
+        <v>6.0205999132796242</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B6">
+        <f t="shared" si="0"/>
+        <v>2.6989700043360187</v>
+      </c>
+      <c r="C6">
+        <v>500</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="3"/>
+        <v>141</v>
+      </c>
+      <c r="E6">
+        <v>1.06</v>
+      </c>
+      <c r="F6">
+        <v>1.84</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="1"/>
+        <v>1.7358490566037736</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="2"/>
+        <v>4.7902391548953247</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B7">
+        <f t="shared" si="0"/>
+        <v>2.7781512503836434</v>
+      </c>
+      <c r="C7">
+        <v>600</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="3"/>
+        <v>123</v>
+      </c>
+      <c r="E7">
+        <v>1.06</v>
+      </c>
+      <c r="F7">
+        <v>1.76</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="1"/>
+        <v>1.6603773584905659</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="2"/>
+        <v>4.4041360509875913</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B8">
+        <f t="shared" si="0"/>
+        <v>2.8450980400142569</v>
+      </c>
+      <c r="C8">
+        <v>700</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="3"/>
+        <v>131</v>
+      </c>
+      <c r="E8">
+        <v>1.06</v>
+      </c>
+      <c r="F8">
+        <v>1.88</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="1"/>
+        <v>1.7735849056603772</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="2"/>
+        <v>4.9770396799781915</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B9">
+        <f t="shared" si="0"/>
+        <v>2.9030899869919438</v>
+      </c>
+      <c r="C9">
+        <v>800</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="3"/>
+        <v>114</v>
+      </c>
+      <c r="E9">
+        <v>1.06</v>
+      </c>
+      <c r="F9">
+        <v>1.92</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="1"/>
+        <v>1.811320754716981</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="2"/>
+        <v>5.1599072687755863</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B10">
+        <f t="shared" si="0"/>
+        <v>2.9542425094393248</v>
+      </c>
+      <c r="C10">
+        <v>900</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="3"/>
+        <v>121</v>
+      </c>
+      <c r="E10">
+        <v>1.06</v>
+      </c>
+      <c r="F10">
+        <v>1.92</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="1"/>
+        <v>1.811320754716981</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="2"/>
+        <v>5.1599072687755863</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B11">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C11">
+        <v>1000</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="3"/>
+        <v>96.4</v>
+      </c>
+      <c r="E11">
+        <v>1.06</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="1"/>
+        <v>1.8867924528301885</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="2"/>
+        <v>5.5144826079842177</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B12">
+        <f t="shared" si="0"/>
+        <v>3.0969100130080562</v>
+      </c>
+      <c r="C12">
+        <v>1250</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="3"/>
+        <v>106</v>
+      </c>
+      <c r="E12">
+        <v>1.06</v>
+      </c>
+      <c r="F12">
+        <v>2.12</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="2"/>
+        <v>6.0205999132796242</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B13">
+        <f t="shared" si="0"/>
+        <v>3.1760912590556813</v>
+      </c>
+      <c r="C13">
+        <v>1500</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="3"/>
+        <v>78</v>
+      </c>
+      <c r="E13">
+        <v>1.06</v>
+      </c>
+      <c r="F13">
+        <v>2.08</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="1"/>
+        <v>1.9622641509433962</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="2"/>
+        <v>5.8551493939598265</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B14">
+        <f t="shared" si="0"/>
+        <v>3.2430380486862944</v>
+      </c>
+      <c r="C14">
+        <v>1750</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="3"/>
+        <v>35</v>
+      </c>
+      <c r="E14">
+        <v>1.06</v>
+      </c>
+      <c r="F14">
+        <v>1.68</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="1"/>
+        <v>1.5849056603773584</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="2"/>
+        <v>4.0000683292218513</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B15">
+        <f t="shared" si="0"/>
+        <v>3.3010299956639813</v>
+      </c>
+      <c r="C15">
+        <v>2000</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="3"/>
+        <v>15.1</v>
+      </c>
+      <c r="E15">
+        <v>1.06</v>
+      </c>
+      <c r="F15">
+        <v>1.56</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="1"/>
+        <v>1.4716981132075471</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="2"/>
+        <v>3.3563746617938266</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B16">
+        <f t="shared" si="0"/>
+        <v>3.3521825181113627</v>
+      </c>
+      <c r="C16">
+        <v>2250</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="3"/>
+        <v>-4.5999999999999996</v>
+      </c>
+      <c r="E16">
+        <v>1.06</v>
+      </c>
+      <c r="F16">
+        <v>1.92</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="1"/>
+        <v>1.811320754716981</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="2"/>
+        <v>5.1599072687755863</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B17">
+        <f t="shared" si="0"/>
+        <v>3.3979400086720375</v>
+      </c>
+      <c r="C17">
+        <v>2500</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="3"/>
+        <v>31.5</v>
+      </c>
+      <c r="E17">
+        <v>1.06</v>
+      </c>
+      <c r="F17">
+        <v>1.76</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="1"/>
+        <v>1.6603773584905659</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="2"/>
+        <v>4.4041360509875913</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B18">
+        <f t="shared" si="0"/>
+        <v>3.4771212547196626</v>
+      </c>
+      <c r="C18">
+        <v>3000</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="3"/>
+        <v>4.8899999999999997</v>
+      </c>
+      <c r="E18">
+        <v>1.06</v>
+      </c>
+      <c r="F18">
+        <v>1.92</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="1"/>
+        <v>1.811320754716981</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="2"/>
+        <v>5.1599072687755863</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B19">
+        <f t="shared" si="0"/>
+        <v>3.4771212547196626</v>
+      </c>
+      <c r="C19">
+        <v>3000</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="3"/>
+        <v>-1.18</v>
+      </c>
+      <c r="E19">
+        <v>1.06</v>
+      </c>
+      <c r="F19">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="1"/>
+        <v>2.1509433962264146</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="2"/>
+        <v>6.6525796347136694</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B20">
+        <f t="shared" si="0"/>
+        <v>3.5440680443502757</v>
+      </c>
+      <c r="C20">
+        <v>3500</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="3"/>
+        <v>-16.399999999999999</v>
+      </c>
+      <c r="E20">
+        <v>1.06</v>
+      </c>
+      <c r="F20">
+        <v>2.36</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="1"/>
+        <v>2.2264150943396226</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="2"/>
+        <v>6.9521227541067265</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B21">
+        <f t="shared" si="0"/>
+        <v>3.6020599913279625</v>
+      </c>
+      <c r="C21">
+        <v>4000</v>
+      </c>
+      <c r="D21">
+        <f t="shared" ref="D21" si="4">-D48</f>
+        <v>83</v>
+      </c>
+      <c r="E21">
+        <v>1.06</v>
+      </c>
+      <c r="F21">
+        <v>2.64</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="1"/>
+        <v>2.4905660377358489</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="2"/>
+        <v>7.9259612321012165</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B22">
+        <f t="shared" si="0"/>
+        <v>3.6532125137753435</v>
+      </c>
+      <c r="C22">
+        <v>4500</v>
+      </c>
+      <c r="D22">
+        <f>-180*2-D49</f>
+        <v>-243</v>
+      </c>
+      <c r="E22">
+        <v>1.06</v>
+      </c>
+      <c r="F22">
+        <v>2.76</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="1"/>
+        <v>2.6037735849056602</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="2"/>
+        <v>8.3120643360089481</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B23">
+        <f t="shared" si="0"/>
+        <v>3.6989700043360187</v>
+      </c>
+      <c r="C23">
+        <v>5000</v>
+      </c>
+      <c r="D23">
+        <f t="shared" ref="D23:D27" si="5">-180*2-D50</f>
+        <v>-530</v>
+      </c>
+      <c r="E23">
+        <v>1.06</v>
+      </c>
+      <c r="F23">
+        <v>1.84</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="1"/>
+        <v>1.7358490566037736</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="2"/>
+        <v>4.7902391548953247</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="D24">
+        <f t="shared" si="5"/>
+        <v>-360</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="D25">
+        <f t="shared" si="5"/>
+        <v>-360</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="D26">
+        <f t="shared" si="5"/>
+        <v>-360</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="D27">
+        <f t="shared" si="5"/>
+        <v>-360</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="D29">
+        <v>-84.5</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="D30">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="D31">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="D32">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="33" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D33">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="34" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D34">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="35" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D35">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="36" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D36">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="37" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D37">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="38" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D38">
+        <v>96.4</v>
+      </c>
+    </row>
+    <row r="39" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D39">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="40" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D40">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="41" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D41">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="42" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D42">
+        <v>15.1</v>
+      </c>
+    </row>
+    <row r="43" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D43">
+        <v>-4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="44" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D44">
+        <v>31.5</v>
+      </c>
+    </row>
+    <row r="45" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D45">
+        <v>4.8899999999999997</v>
+      </c>
+    </row>
+    <row r="46" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D46">
+        <v>-1.18</v>
+      </c>
+    </row>
+    <row r="47" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D47">
+        <v>-16.399999999999999</v>
+      </c>
+    </row>
+    <row r="48" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D48">
+        <v>-83</v>
+      </c>
+    </row>
+    <row r="49" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D49">
+        <v>-117</v>
+      </c>
+    </row>
+    <row r="50" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D50">
+        <v>170</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{567B8A23-83AF-4C49-BADA-35D9407CDDB5}">
+  <dimension ref="B1:H27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B2">
+        <f>LOG10(C2)</f>
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>100</v>
+      </c>
+      <c r="D2">
+        <v>44</v>
+      </c>
+      <c r="E2">
+        <v>0.68</v>
+      </c>
+      <c r="F2">
+        <v>1.6</v>
+      </c>
+      <c r="G2">
+        <f>F2/E2</f>
+        <v>2.3529411764705883</v>
+      </c>
+      <c r="H2">
+        <f>20*LOG10(G2)</f>
+        <v>7.4322213989937689</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B3">
+        <f t="shared" ref="B3:B27" si="0">LOG10(C3)</f>
+        <v>2.3010299956639813</v>
+      </c>
+      <c r="C3">
+        <v>200</v>
+      </c>
+      <c r="D3">
+        <v>129</v>
+      </c>
+      <c r="E3">
+        <v>0.68</v>
+      </c>
+      <c r="F3">
+        <v>1.28</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G27" si="1">F3/E3</f>
+        <v>1.8823529411764706</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H27" si="2">20*LOG10(G3)</f>
+        <v>5.4940211388326414</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B4">
+        <f t="shared" si="0"/>
+        <v>2.4771212547196626</v>
+      </c>
+      <c r="C4">
+        <v>300</v>
+      </c>
+      <c r="D4">
+        <v>73</v>
+      </c>
+      <c r="E4">
+        <v>0.68</v>
+      </c>
+      <c r="F4">
+        <v>0.98</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="1"/>
+        <v>1.4411764705882351</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="2"/>
+        <v>3.1743432597251693</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B5">
+        <f t="shared" si="0"/>
+        <v>2.6020599913279625</v>
+      </c>
+      <c r="C5">
+        <v>400</v>
+      </c>
+      <c r="D5">
+        <v>105</v>
+      </c>
+      <c r="E5">
+        <v>0.67200000000000004</v>
+      </c>
+      <c r="F5">
+        <v>0.82</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="1"/>
+        <v>1.2202380952380951</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="2"/>
+        <v>1.728891586597828</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B6">
+        <f t="shared" si="0"/>
+        <v>2.6989700043360187</v>
+      </c>
+      <c r="C6">
+        <v>500</v>
+      </c>
+      <c r="D6">
+        <v>49.2</v>
+      </c>
+      <c r="E6">
+        <v>0.68</v>
+      </c>
+      <c r="F6">
+        <v>0.68</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B7">
+        <f t="shared" si="0"/>
+        <v>2.7781512503836434</v>
+      </c>
+      <c r="C7">
+        <v>600</v>
+      </c>
+      <c r="D7">
+        <v>95.1</v>
+      </c>
+      <c r="E7">
+        <v>0.68</v>
+      </c>
+      <c r="F7">
+        <v>0.6</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="1"/>
+        <v>0.88235294117647045</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="2"/>
+        <v>-1.087153246451855</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B8">
+        <f t="shared" si="0"/>
+        <v>2.8450980400142569</v>
+      </c>
+      <c r="C8">
+        <v>700</v>
+      </c>
+      <c r="D8">
+        <v>45.4</v>
+      </c>
+      <c r="E8">
+        <v>0.68799999999999994</v>
+      </c>
+      <c r="F8">
+        <v>0.62</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="1"/>
+        <v>0.90116279069767447</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="2"/>
+        <v>-0.90393497474514817</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B9">
+        <f t="shared" si="0"/>
+        <v>2.9030899869919438</v>
+      </c>
+      <c r="C9">
+        <v>800</v>
+      </c>
+      <c r="D9">
+        <v>83.4</v>
+      </c>
+      <c r="E9">
+        <v>0.68</v>
+      </c>
+      <c r="F9">
+        <v>0.62</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="1"/>
+        <v>0.91176470588235292</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="2"/>
+        <v>-0.802344464159649</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B10">
+        <f t="shared" si="0"/>
+        <v>2.9542425094393248</v>
+      </c>
+      <c r="C10">
+        <v>900</v>
+      </c>
+      <c r="D10">
+        <v>44.6</v>
+      </c>
+      <c r="E10">
+        <v>0.67200000000000004</v>
+      </c>
+      <c r="F10">
+        <v>0.6</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="1"/>
+        <v>0.89285714285714279</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="2"/>
+        <v>-0.98436045340363276</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B11">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C11">
+        <v>1000</v>
+      </c>
+      <c r="D11">
+        <v>68.099999999999994</v>
+      </c>
+      <c r="E11">
+        <v>0.68</v>
+      </c>
+      <c r="F11">
+        <v>0.62</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="1"/>
+        <v>0.91176470588235292</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="2"/>
+        <v>-0.802344464159649</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B12">
+        <f t="shared" si="0"/>
+        <v>3.0969100130080562</v>
+      </c>
+      <c r="C12">
+        <v>1250</v>
+      </c>
+      <c r="D12">
+        <v>50.5</v>
+      </c>
+      <c r="E12">
+        <v>0.68</v>
+      </c>
+      <c r="F12">
+        <v>0.72</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="1"/>
+        <v>1.0588235294117645</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="2"/>
+        <v>0.49647167450064111</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B13">
+        <f t="shared" si="0"/>
+        <v>3.1760912590556813</v>
+      </c>
+      <c r="C13">
+        <v>1500</v>
+      </c>
+      <c r="D13">
+        <v>26.9</v>
+      </c>
+      <c r="E13">
+        <v>0.68</v>
+      </c>
+      <c r="F13">
+        <v>0.72</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="1"/>
+        <v>1.0588235294117645</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="2"/>
+        <v>0.49647167450064111</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B14">
+        <f t="shared" si="0"/>
+        <v>3.2430380486862944</v>
+      </c>
+      <c r="C14">
+        <v>1750</v>
+      </c>
+      <c r="D14">
+        <v>1.75</v>
+      </c>
+      <c r="E14">
+        <v>0.69599999999999995</v>
+      </c>
+      <c r="F14">
+        <v>0.6</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="1"/>
+        <v>0.86206896551724144</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="2"/>
+        <v>-1.2891597845383691</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B15">
+        <f t="shared" si="0"/>
+        <v>3.3010299956639813</v>
+      </c>
+      <c r="C15">
+        <v>2000</v>
+      </c>
+      <c r="D15">
+        <v>-1.96</v>
+      </c>
+      <c r="E15">
+        <v>0.70399999999999996</v>
+      </c>
+      <c r="F15">
+        <v>0.48</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="1"/>
+        <v>0.68181818181818188</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="2"/>
+        <v>-3.3266284353304991</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B16">
+        <f t="shared" si="0"/>
+        <v>3.3521825181113627</v>
+      </c>
+      <c r="C16">
+        <v>2250</v>
+      </c>
+      <c r="D16">
+        <v>-1.1599999999999999</v>
+      </c>
+      <c r="E16">
+        <v>0.68</v>
+      </c>
+      <c r="F16">
+        <v>0.5</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="1"/>
+        <v>0.73529411764705876</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="2"/>
+        <v>-2.6707781674043511</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B17">
+        <f t="shared" si="0"/>
+        <v>3.3979400086720375</v>
+      </c>
+      <c r="C17">
+        <v>2500</v>
+      </c>
+      <c r="D17">
+        <v>-5.41</v>
+      </c>
+      <c r="E17">
+        <v>0.68</v>
+      </c>
+      <c r="F17">
+        <v>0.48</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="1"/>
+        <v>0.70588235294117641</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="2"/>
+        <v>-3.0253535066129826</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B18">
+        <f t="shared" si="0"/>
+        <v>3.4393326938302629</v>
+      </c>
+      <c r="C18">
+        <v>2750</v>
+      </c>
+      <c r="D18">
+        <v>-6.94</v>
+      </c>
+      <c r="E18">
+        <v>0.68799999999999994</v>
+      </c>
+      <c r="F18">
+        <v>0.47199999999999998</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="1"/>
+        <v>0.68604651162790697</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="2"/>
+        <v>-3.2729287920284706</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B19">
+        <f t="shared" si="0"/>
+        <v>3.4771212547196626</v>
+      </c>
+      <c r="C19">
+        <v>3000</v>
+      </c>
+      <c r="D19">
+        <v>-15.1</v>
+      </c>
+      <c r="E19">
+        <v>0.68799999999999994</v>
+      </c>
+      <c r="F19">
+        <v>0.54400000000000004</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="1"/>
+        <v>0.79069767441860472</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="2"/>
+        <v>-2.0397907707466274</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B20">
+        <f t="shared" si="0"/>
+        <v>3.5118833609788744</v>
+      </c>
+      <c r="C20">
+        <v>3250</v>
+      </c>
+      <c r="D20">
+        <v>-28.6</v>
+      </c>
+      <c r="E20">
+        <v>0.69599999999999995</v>
+      </c>
+      <c r="F20">
+        <v>0.63200000000000001</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="1"/>
+        <v>0.90804597701149437</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="2"/>
+        <v>-0.83784322656354093</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B21">
+        <f t="shared" si="0"/>
+        <v>3.5440680443502757</v>
+      </c>
+      <c r="C21">
+        <v>3500</v>
+      </c>
+      <c r="D21">
+        <v>-40.299999999999997</v>
+      </c>
+      <c r="E21">
+        <v>0.68</v>
+      </c>
+      <c r="F21">
+        <v>0.67200000000000004</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="1"/>
+        <v>0.9882352941176471</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="2"/>
+        <v>-0.10279279304822113</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B22">
+        <f t="shared" si="0"/>
+        <v>3.5740312677277188</v>
+      </c>
+      <c r="C22">
+        <v>3750</v>
+      </c>
+      <c r="D22">
+        <v>-56.7</v>
+      </c>
+      <c r="E22">
+        <v>0.70399999999999996</v>
+      </c>
+      <c r="F22">
+        <v>0.70399999999999996</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B23">
+        <f t="shared" si="0"/>
+        <v>3.6020599913279625</v>
+      </c>
+      <c r="C23">
+        <v>4000</v>
+      </c>
+      <c r="D23">
+        <v>-77.099999999999994</v>
+      </c>
+      <c r="E23">
+        <v>0.68799999999999994</v>
+      </c>
+      <c r="F23">
+        <v>0.72</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="1"/>
+        <v>1.0465116279069768</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="2"/>
+        <v>0.39488116391514372</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B24">
+        <f t="shared" si="0"/>
+        <v>3.6283889300503116</v>
+      </c>
+      <c r="C24">
+        <v>4250</v>
+      </c>
+      <c r="D24">
+        <v>-90.6</v>
+      </c>
+      <c r="E24">
+        <v>0.68</v>
+      </c>
+      <c r="F24">
+        <v>0.71199999999999997</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="1"/>
+        <v>1.0470588235294116</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="2"/>
+        <v>0.39942161861239966</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B25">
+        <f t="shared" si="0"/>
+        <v>3.6532125137753435</v>
+      </c>
+      <c r="C25">
+        <v>4500</v>
+      </c>
+      <c r="D25">
+        <v>-113</v>
+      </c>
+      <c r="E25">
+        <v>0.68799999999999994</v>
+      </c>
+      <c r="F25">
+        <v>0.72</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="1"/>
+        <v>1.0465116279069768</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="2"/>
+        <v>0.39488116391514372</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B26">
+        <f t="shared" si="0"/>
+        <v>3.6766936096248664</v>
+      </c>
+      <c r="C26">
+        <v>4750</v>
+      </c>
+      <c r="D26">
+        <v>-141</v>
+      </c>
+      <c r="E26">
+        <v>0.69599999999999995</v>
+      </c>
+      <c r="F26">
+        <v>0.63200000000000001</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="1"/>
+        <v>0.90804597701149437</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="2"/>
+        <v>-0.83784322656354093</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B27">
+        <f t="shared" si="0"/>
+        <v>3.6989700043360187</v>
+      </c>
+      <c r="C27">
+        <v>5000</v>
+      </c>
+      <c r="D27">
+        <v>-171</v>
+      </c>
+      <c r="E27">
+        <v>0.68</v>
+      </c>
+      <c r="F27">
+        <v>0.48</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="1"/>
+        <v>0.70588235294117641</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="2"/>
+        <v>-3.0253535066129826</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{359EBEEA-FFE2-49A3-A21A-CE8C8C366216}">
+  <dimension ref="B1:H27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B2">
+        <f>LOG10(C2)</f>
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>100</v>
+      </c>
+      <c r="D2">
+        <v>34.5</v>
+      </c>
+      <c r="E2">
+        <v>1.02</v>
+      </c>
+      <c r="F2">
+        <v>0.48</v>
+      </c>
+      <c r="G2">
+        <f>F2/E2</f>
+        <v>0.47058823529411764</v>
+      </c>
+      <c r="H2">
+        <f>20*LOG10(G2)</f>
+        <v>-6.5471786877266069</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B3">
+        <f t="shared" ref="B3:B27" si="0">LOG10(C3)</f>
+        <v>2.3010299956639813</v>
+      </c>
+      <c r="C3">
+        <v>200</v>
+      </c>
+      <c r="D3">
+        <v>31.6</v>
+      </c>
+      <c r="E3">
+        <v>1.02</v>
+      </c>
+      <c r="F3">
+        <v>0.48799999999999999</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G27" si="1">F3/E3</f>
+        <v>0.47843137254901957</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H27" si="2">20*LOG10(G3)</f>
+        <v>-6.4036069951841394</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B4">
+        <f t="shared" si="0"/>
+        <v>2.4771212547196626</v>
+      </c>
+      <c r="C4">
+        <v>300</v>
+      </c>
+      <c r="D4">
+        <v>45.2</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>0.44800000000000001</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="1"/>
+        <v>0.44800000000000001</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="2"/>
+        <v>-6.97443972003712</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B5">
+        <f t="shared" si="0"/>
+        <v>2.6020599913279625</v>
+      </c>
+      <c r="C5">
+        <v>400</v>
+      </c>
+      <c r="D5">
+        <v>-38.4</v>
+      </c>
+      <c r="E5">
+        <v>1.02</v>
+      </c>
+      <c r="F5">
+        <v>0.48799999999999999</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="1"/>
+        <v>0.47843137254901957</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="2"/>
+        <v>-6.4036069951841394</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B6">
+        <f t="shared" si="0"/>
+        <v>2.6989700043360187</v>
+      </c>
+      <c r="C6">
+        <v>500</v>
+      </c>
+      <c r="D6">
+        <v>-47.1</v>
+      </c>
+      <c r="E6">
+        <v>1.02</v>
+      </c>
+      <c r="F6">
+        <v>0.44800000000000001</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="1"/>
+        <v>0.4392156862745098</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="2"/>
+        <v>-7.1464431552754712</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B7">
+        <f t="shared" si="0"/>
+        <v>2.7781512503836434</v>
+      </c>
+      <c r="C7">
+        <v>600</v>
+      </c>
+      <c r="D7">
+        <v>-77.599999999999994</v>
+      </c>
+      <c r="E7">
+        <v>1.02</v>
+      </c>
+      <c r="F7">
+        <v>0.44800000000000001</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="1"/>
+        <v>0.4392156862745098</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="2"/>
+        <v>-7.1464431552754712</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B8">
+        <f t="shared" si="0"/>
+        <v>2.8450980400142569</v>
+      </c>
+      <c r="C8">
+        <v>700</v>
+      </c>
+      <c r="D8">
+        <v>-92</v>
+      </c>
+      <c r="E8">
+        <v>1.02</v>
+      </c>
+      <c r="F8">
+        <v>0.46400000000000002</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="1"/>
+        <v>0.45490196078431372</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="2"/>
+        <v>-6.8416438241407338</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B9">
+        <f t="shared" si="0"/>
+        <v>2.9030899869919438</v>
+      </c>
+      <c r="C9">
+        <v>800</v>
+      </c>
+      <c r="D9">
+        <v>-8.74</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.46400000000000002</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="1"/>
+        <v>0.46400000000000002</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="2"/>
+        <v>-6.6696403889023825</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B10">
+        <f t="shared" si="0"/>
+        <v>2.9542425094393248</v>
+      </c>
+      <c r="C10">
+        <v>900</v>
+      </c>
+      <c r="D10">
+        <v>-73.900000000000006</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.48799999999999999</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="1"/>
+        <v>0.48799999999999999</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="2"/>
+        <v>-6.2316035599457873</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B11">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C11">
+        <v>1000</v>
+      </c>
+      <c r="D11">
+        <v>-103</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.496</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="1"/>
+        <v>0.496</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="2"/>
+        <v>-6.0903664701960514</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B12">
+        <f t="shared" si="0"/>
+        <v>3.0969100130080562</v>
+      </c>
+      <c r="C12">
+        <v>1250</v>
+      </c>
+      <c r="D12">
+        <v>-44.8</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.59199999999999997</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="1"/>
+        <v>0.59199999999999997</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="2"/>
+        <v>-4.5535658655416054</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B13">
+        <f t="shared" si="0"/>
+        <v>3.1760912590556813</v>
+      </c>
+      <c r="C13">
+        <v>1500</v>
+      </c>
+      <c r="D13">
+        <v>-90.8</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.77600000000000002</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="1"/>
+        <v>0.77600000000000002</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="2"/>
+        <v>-2.2027655748362309</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B14">
+        <f t="shared" si="0"/>
+        <v>3.2430380486862944</v>
+      </c>
+      <c r="C14">
+        <v>1750</v>
+      </c>
+      <c r="D14">
+        <v>-92</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.85599999999999998</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="1"/>
+        <v>0.85599999999999998</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="2"/>
+        <v>-1.3505247064569357</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B15">
+        <f t="shared" si="0"/>
+        <v>3.3010299956639813</v>
+      </c>
+      <c r="C15">
+        <v>2000</v>
+      </c>
+      <c r="D15">
+        <v>-104</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.68</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="1"/>
+        <v>0.68</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="2"/>
+        <v>-3.349821745875273</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B16">
+        <f t="shared" si="0"/>
+        <v>3.3521825181113627</v>
+      </c>
+      <c r="C16">
+        <v>2250</v>
+      </c>
+      <c r="D16">
+        <v>-162</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.73599999999999999</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="1"/>
+        <v>0.73599999999999999</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="2"/>
+        <v>-2.6624437132500227</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B17">
+        <f t="shared" si="0"/>
+        <v>3.3979400086720375</v>
+      </c>
+      <c r="C17">
+        <v>2500</v>
+      </c>
+      <c r="D17">
+        <v>-145</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.77600000000000002</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="1"/>
+        <v>0.77600000000000002</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="2"/>
+        <v>-2.2027655748362309</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B18">
+        <f t="shared" si="0"/>
+        <v>3.4393326938302629</v>
+      </c>
+      <c r="C18">
+        <v>2750</v>
+      </c>
+      <c r="D18">
+        <v>-170</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.752</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="1"/>
+        <v>0.752</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="2"/>
+        <v>-2.475643188167155</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B19">
+        <f t="shared" si="0"/>
+        <v>3.4771212547196626</v>
+      </c>
+      <c r="C19">
+        <v>3000</v>
+      </c>
+      <c r="D19">
+        <v>-177</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.93600000000000005</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="1"/>
+        <v>0.93600000000000005</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="2"/>
+        <v>-0.57448302523789496</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B20">
+        <f t="shared" si="0"/>
+        <v>3.5118833609788744</v>
+      </c>
+      <c r="C20">
+        <v>3250</v>
+      </c>
+      <c r="D20">
+        <v>163</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.94399999999999995</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="1"/>
+        <v>0.94399999999999995</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="2"/>
+        <v>-0.500560114038621</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B21">
+        <f t="shared" si="0"/>
+        <v>3.5440680443502757</v>
+      </c>
+      <c r="C21">
+        <v>3500</v>
+      </c>
+      <c r="D21">
+        <v>135</v>
+      </c>
+      <c r="E21">
+        <v>1.04</v>
+      </c>
+      <c r="F21">
+        <v>0.71199999999999997</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="1"/>
+        <v>0.68461538461538451</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="2"/>
+        <v>-3.2910669132384811</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B22">
+        <f t="shared" si="0"/>
+        <v>3.5740312677277188</v>
+      </c>
+      <c r="C22">
+        <v>3750</v>
+      </c>
+      <c r="D22">
+        <v>100</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>0.57599999999999996</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="1"/>
+        <v>0.57599999999999996</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="2"/>
+        <v>-4.7915503315357597</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B23">
+        <f t="shared" si="0"/>
+        <v>3.6020599913279625</v>
+      </c>
+      <c r="C23">
+        <v>4000</v>
+      </c>
+      <c r="D23">
+        <v>80.599999999999994</v>
+      </c>
+      <c r="E23">
+        <v>1.02</v>
+      </c>
+      <c r="F23">
+        <v>0.46400000000000002</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="1"/>
+        <v>0.45490196078431372</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="2"/>
+        <v>-6.8416438241407338</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B24">
+        <f t="shared" si="0"/>
+        <v>3.6283889300503116</v>
+      </c>
+      <c r="C24">
+        <v>4250</v>
+      </c>
+      <c r="D24">
+        <v>73.2</v>
+      </c>
+      <c r="E24">
+        <v>1.02</v>
+      </c>
+      <c r="F24">
+        <v>0.4</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="1"/>
+        <v>0.39215686274509803</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="2"/>
+        <v>-8.1308036086791038</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B25">
+        <f t="shared" si="0"/>
+        <v>3.6532125137753435</v>
+      </c>
+      <c r="C25">
+        <v>4500</v>
+      </c>
+      <c r="D25">
+        <v>38.9</v>
+      </c>
+      <c r="E25">
+        <v>1.04</v>
+      </c>
+      <c r="F25">
+        <v>0.36</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="1"/>
+        <v>0.34615384615384615</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="2"/>
+        <v>-9.2146167706298616</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B26">
+        <f t="shared" si="0"/>
+        <v>3.6766936096248664</v>
+      </c>
+      <c r="C26">
+        <v>4750</v>
+      </c>
+      <c r="D26">
+        <v>37.5</v>
+      </c>
+      <c r="E26">
+        <v>1.02</v>
+      </c>
+      <c r="F26">
+        <v>0.312</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="1"/>
+        <v>0.30588235294117644</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="2"/>
+        <v>-10.288911554869495</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B27">
+        <f t="shared" si="0"/>
+        <v>3.6989700043360187</v>
+      </c>
+      <c r="C27">
+        <v>5000</v>
+      </c>
+      <c r="D27">
+        <v>10.8</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>0.27600000000000002</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="1"/>
+        <v>0.27600000000000002</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="2"/>
+        <v>-11.181818358695645</v>
       </c>
     </row>
   </sheetData>

--- a/Experiment_4/Exp4_Analysis.xlsx
+++ b/Experiment_4/Exp4_Analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\harsh\GitHub\EE324-Control-Systems-Lab\Experiment_4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF6060A6-62F6-4FEF-8895-B6D04C0E82EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F386C763-E267-4318-AD5C-9260DE24B746}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14476" activeTab="5" xr2:uid="{30CF7E55-AA48-4513-BE12-A4EAC86F92B2}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14476" activeTab="1" xr2:uid="{30CF7E55-AA48-4513-BE12-A4EAC86F92B2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2184,79 +2184,79 @@
                   <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>129</c:v>
+                  <c:v>-51</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>73</c:v>
+                  <c:v>-107</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>105</c:v>
+                  <c:v>-75</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>49.2</c:v>
+                  <c:v>-130.80000000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>95.1</c:v>
+                  <c:v>-84.9</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>45.4</c:v>
+                  <c:v>-134.6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>83.4</c:v>
+                  <c:v>-96.6</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44.6</c:v>
+                  <c:v>-135.4</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>68.099999999999994</c:v>
+                  <c:v>-111.9</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>50.5</c:v>
+                  <c:v>-129.5</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>26.9</c:v>
+                  <c:v>-153.1</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.75</c:v>
+                  <c:v>-178.25</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-1.96</c:v>
+                  <c:v>-181.96</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-1.1599999999999999</c:v>
+                  <c:v>-181.16</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-5.41</c:v>
+                  <c:v>-185.41</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-6.94</c:v>
+                  <c:v>-186.94</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-15.1</c:v>
+                  <c:v>-195.1</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-28.6</c:v>
+                  <c:v>-208.6</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-40.299999999999997</c:v>
+                  <c:v>-220.3</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-56.7</c:v>
+                  <c:v>-236.7</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-77.099999999999994</c:v>
+                  <c:v>-257.10000000000002</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-90.6</c:v>
+                  <c:v>-270.60000000000002</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-113</c:v>
+                  <c:v>-293</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-141</c:v>
+                  <c:v>-321</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-171</c:v>
+                  <c:v>-351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3090,10 +3090,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet6!$D$2:$D$27</c:f>
+              <c:f>Sheet6!$D$2:$D$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="26"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>34.5</c:v>
                 </c:pt>
@@ -3149,27 +3149,51 @@
                   <c:v>-177</c:v>
                 </c:pt>
                 <c:pt idx="18">
+                  <c:v>-197</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-225</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-260</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-279.39999999999998</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-286.8</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-321.10000000000002</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-322.5</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-349.2</c:v>
+                </c:pt>
+                <c:pt idx="27">
                   <c:v>163</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="28">
                   <c:v>135</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="29">
                   <c:v>100</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="30">
                   <c:v>80.599999999999994</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="31">
                   <c:v>73.2</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="32">
                   <c:v>38.9</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="33">
                   <c:v>37.5</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="34">
                   <c:v>10.8</c:v>
                 </c:pt>
               </c:numCache>
@@ -5584,6 +5608,7 @@
         <c:axId val="365817199"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="4"/>
           <c:min val="2"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -6041,6 +6066,7 @@
         <c:axId val="1036397391"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="4"/>
           <c:min val="2"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -17130,15 +17156,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DB1F358-7CEA-405F-9A39-2E5DC5B28A1D}">
-  <dimension ref="B1:H54"/>
+  <dimension ref="B1:I54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B1" t="s">
         <v>6</v>
       </c>
@@ -17161,7 +17187,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B2">
         <f>LOG10(C2)</f>
         <v>2</v>
@@ -17187,8 +17213,12 @@
         <f>20*LOG10(G2)</f>
         <v>-6.6739822483469879</v>
       </c>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="I2">
+        <f>H2-$H$2+Sheet5!$H$2</f>
+        <v>7.4322213989937689</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B3">
         <f t="shared" ref="B3:B27" si="0">LOG10(C3)</f>
         <v>2.3010299956639813</v>
@@ -17214,8 +17244,12 @@
         <f t="shared" ref="H3:H27" si="3">20*LOG10(G3)</f>
         <v>-7.5290218567659846</v>
       </c>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="I3">
+        <f>H3-$H$2+Sheet5!$H$2</f>
+        <v>6.5771817905747723</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B4">
         <f t="shared" si="0"/>
         <v>2.4771212547196626</v>
@@ -17241,8 +17275,12 @@
         <f t="shared" si="3"/>
         <v>-9.9285281983009828</v>
       </c>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="I4">
+        <f>H4-$H$2+Sheet5!$H$2</f>
+        <v>4.1776754490397741</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B5">
         <f t="shared" si="0"/>
         <v>2.6020599913279625</v>
@@ -17268,8 +17306,12 @@
         <f t="shared" si="3"/>
         <v>-10.756381901465485</v>
       </c>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="I5">
+        <f>H5-$H$2+Sheet5!$H$2</f>
+        <v>3.3498217458752721</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B6">
         <f t="shared" si="0"/>
         <v>2.6989700043360187</v>
@@ -17295,8 +17337,12 @@
         <f t="shared" si="3"/>
         <v>-11.201909795688529</v>
       </c>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="I6">
+        <f>H6-$H$2+Sheet5!$H$2</f>
+        <v>2.9042938516522279</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B7">
         <f t="shared" si="0"/>
         <v>2.7781512503836434</v>
@@ -17322,8 +17368,12 @@
         <f t="shared" si="3"/>
         <v>-11.201909795688529</v>
       </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="I7">
+        <f>H7-$H$2+Sheet5!$H$2</f>
+        <v>2.9042938516522279</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B8">
         <f t="shared" si="0"/>
         <v>2.8450980400142569</v>
@@ -17349,8 +17399,12 @@
         <f t="shared" si="3"/>
         <v>-10.54190459363002</v>
       </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="I8">
+        <f>H8-$H$2+Sheet5!$H$2</f>
+        <v>3.5642990537107364</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B9">
         <f t="shared" si="0"/>
         <v>2.9030899869919438</v>
@@ -17376,8 +17430,12 @@
         <f t="shared" si="3"/>
         <v>-10.332595920066721</v>
       </c>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="I9">
+        <f>H9-$H$2+Sheet5!$H$2</f>
+        <v>3.7736077272740358</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B10">
         <f t="shared" si="0"/>
         <v>2.9542425094393248</v>
@@ -17403,8 +17461,12 @@
         <f t="shared" si="3"/>
         <v>-9.5424250943932485</v>
       </c>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="I10">
+        <f>H10-$H$2+Sheet5!$H$2</f>
+        <v>4.5637785529475083</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B11">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -17430,8 +17492,12 @@
         <f t="shared" si="3"/>
         <v>-9.3556245693103826</v>
       </c>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="I11">
+        <f>H11-$H$2+Sheet5!$H$2</f>
+        <v>4.7505790780303743</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B12">
         <f t="shared" si="0"/>
         <v>3.0969100130080562</v>
@@ -17457,8 +17523,12 @@
         <f t="shared" si="3"/>
         <v>-7.0909850278093902</v>
       </c>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="I12">
+        <f>H12-$H$2+Sheet5!$H$2</f>
+        <v>7.0152186195313666</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B13">
         <f t="shared" si="0"/>
         <v>3.1760912590556813</v>
@@ -17484,8 +17554,12 @@
         <f t="shared" si="3"/>
         <v>-6.1474034739000052</v>
       </c>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="I13">
+        <f>H13-$H$2+Sheet5!$H$2</f>
+        <v>7.9588001734407516</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B14">
         <f t="shared" si="0"/>
         <v>3.2430380486862944</v>
@@ -17511,8 +17585,12 @@
         <f t="shared" si="3"/>
         <v>-7.0747269235996839</v>
       </c>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="I14">
+        <f>H14-$H$2+Sheet5!$H$2</f>
+        <v>7.0314767237410729</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B15">
         <f t="shared" si="0"/>
         <v>3.3010299956639813</v>
@@ -17538,8 +17616,12 @@
         <f t="shared" si="3"/>
         <v>-8.9669902429927593</v>
       </c>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="I15">
+        <f>H15-$H$2+Sheet5!$H$2</f>
+        <v>5.1392134043479976</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B16">
         <f t="shared" si="0"/>
         <v>3.3521825181113627</v>
@@ -17565,8 +17647,12 @@
         <f t="shared" si="3"/>
         <v>-7.8700168828458583</v>
       </c>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="I16">
+        <f>H16-$H$2+Sheet5!$H$2</f>
+        <v>6.2361867644948985</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B17">
         <f t="shared" si="0"/>
         <v>3.3979400086720375</v>
@@ -17592,8 +17678,12 @@
         <f t="shared" si="3"/>
         <v>-9.2648970247134805</v>
       </c>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="I17">
+        <f>H17-$H$2+Sheet5!$H$2</f>
+        <v>4.8413066226272763</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B18">
         <f t="shared" si="0"/>
         <v>3.4393326938302629</v>
@@ -17619,8 +17709,12 @@
         <f t="shared" si="3"/>
         <v>-8.7866538766052535</v>
       </c>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="I18">
+        <f>H18-$H$2+Sheet5!$H$2</f>
+        <v>5.3195497707355033</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B19">
         <f t="shared" si="0"/>
         <v>3.4771212547196626</v>
@@ -17646,8 +17740,12 @@
         <f t="shared" si="3"/>
         <v>-7.398225701435881</v>
       </c>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="I19">
+        <f>H19-$H$2+Sheet5!$H$2</f>
+        <v>6.7079779459048758</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B20">
         <f t="shared" si="0"/>
         <v>3.5118833609788744</v>
@@ -17673,8 +17771,12 @@
         <f t="shared" si="3"/>
         <v>-6.1356464910614505</v>
       </c>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="I20">
+        <f>H20-$H$2+Sheet5!$H$2</f>
+        <v>7.9705571562793063</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B21">
         <f t="shared" si="0"/>
         <v>3.5440680443502757</v>
@@ -17700,8 +17802,12 @@
         <f t="shared" si="3"/>
         <v>-5.684329933086623</v>
       </c>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="I21">
+        <f>H21-$H$2+Sheet5!$H$2</f>
+        <v>8.4218737142541329</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B22">
         <f t="shared" si="0"/>
         <v>3.5740312677277188</v>
@@ -17727,8 +17833,12 @@
         <f t="shared" si="3"/>
         <v>-5.1620359024434057</v>
       </c>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="I22">
+        <f>H22-$H$2+Sheet5!$H$2</f>
+        <v>8.9441677448973511</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B23">
         <f t="shared" si="0"/>
         <v>3.6020599913279625</v>
@@ -17754,8 +17864,12 @@
         <f t="shared" si="3"/>
         <v>-4.762614283831005</v>
       </c>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="I23">
+        <f>H23-$H$2+Sheet5!$H$2</f>
+        <v>9.3435893635097518</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B24">
         <f t="shared" si="0"/>
         <v>3.6283889300503116</v>
@@ -17781,8 +17895,12 @@
         <f t="shared" si="3"/>
         <v>-4.6655642279427649</v>
       </c>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="I24">
+        <f>H24-$H$2+Sheet5!$H$2</f>
+        <v>9.4406394193979928</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B25">
         <f t="shared" si="0"/>
         <v>3.6532125137753435</v>
@@ -17808,8 +17926,12 @@
         <f t="shared" si="3"/>
         <v>-4.3807554456505589</v>
       </c>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="I25">
+        <f>H25-$H$2+Sheet5!$H$2</f>
+        <v>9.7254482016901989</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B26">
         <f t="shared" si="0"/>
         <v>3.6766936096248664</v>
@@ -17835,8 +17957,12 @@
         <f t="shared" si="3"/>
         <v>-5.3688525692077826</v>
       </c>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="I26">
+        <f>H26-$H$2+Sheet5!$H$2</f>
+        <v>8.7373510781329742</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B27">
         <f t="shared" si="0"/>
         <v>3.6989700043360187</v>
@@ -17862,23 +17988,27 @@
         <f t="shared" si="3"/>
         <v>-7.245993048058077</v>
       </c>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="I27">
+        <f>H27-$H$2+Sheet5!$H$2</f>
+        <v>6.8602105992826798</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.45">
       <c r="D29">
         <v>-59.8</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.45">
       <c r="D30">
         <v>-2.88</v>
       </c>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.45">
       <c r="D31">
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.45">
       <c r="D32">
         <v>18.7</v>
       </c>
@@ -18619,7 +18749,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D499F2D2-FD1B-4A91-ADA8-5E87CFDF1DCE}">
   <dimension ref="B1:H50"/>
   <sheetViews>
-    <sheetView topLeftCell="G16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="77" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="R10" sqref="R10"/>
     </sheetView>
   </sheetViews>
@@ -19384,10 +19514,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{567B8A23-83AF-4C49-BADA-35D9407CDDB5}">
-  <dimension ref="B1:H27"/>
+  <dimension ref="B1:H54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -19450,7 +19580,8 @@
         <v>200</v>
       </c>
       <c r="D3">
-        <v>129</v>
+        <f>-180+D30</f>
+        <v>-51</v>
       </c>
       <c r="E3">
         <v>0.68</v>
@@ -19476,7 +19607,8 @@
         <v>300</v>
       </c>
       <c r="D4">
-        <v>73</v>
+        <f t="shared" ref="D4:D27" si="3">-180+D31</f>
+        <v>-107</v>
       </c>
       <c r="E4">
         <v>0.68</v>
@@ -19502,7 +19634,8 @@
         <v>400</v>
       </c>
       <c r="D5">
-        <v>105</v>
+        <f t="shared" si="3"/>
+        <v>-75</v>
       </c>
       <c r="E5">
         <v>0.67200000000000004</v>
@@ -19528,7 +19661,8 @@
         <v>500</v>
       </c>
       <c r="D6">
-        <v>49.2</v>
+        <f t="shared" si="3"/>
+        <v>-130.80000000000001</v>
       </c>
       <c r="E6">
         <v>0.68</v>
@@ -19554,7 +19688,8 @@
         <v>600</v>
       </c>
       <c r="D7">
-        <v>95.1</v>
+        <f t="shared" si="3"/>
+        <v>-84.9</v>
       </c>
       <c r="E7">
         <v>0.68</v>
@@ -19580,7 +19715,8 @@
         <v>700</v>
       </c>
       <c r="D8">
-        <v>45.4</v>
+        <f t="shared" si="3"/>
+        <v>-134.6</v>
       </c>
       <c r="E8">
         <v>0.68799999999999994</v>
@@ -19606,7 +19742,8 @@
         <v>800</v>
       </c>
       <c r="D9">
-        <v>83.4</v>
+        <f t="shared" si="3"/>
+        <v>-96.6</v>
       </c>
       <c r="E9">
         <v>0.68</v>
@@ -19632,7 +19769,8 @@
         <v>900</v>
       </c>
       <c r="D10">
-        <v>44.6</v>
+        <f t="shared" si="3"/>
+        <v>-135.4</v>
       </c>
       <c r="E10">
         <v>0.67200000000000004</v>
@@ -19658,7 +19796,8 @@
         <v>1000</v>
       </c>
       <c r="D11">
-        <v>68.099999999999994</v>
+        <f t="shared" si="3"/>
+        <v>-111.9</v>
       </c>
       <c r="E11">
         <v>0.68</v>
@@ -19684,7 +19823,8 @@
         <v>1250</v>
       </c>
       <c r="D12">
-        <v>50.5</v>
+        <f t="shared" si="3"/>
+        <v>-129.5</v>
       </c>
       <c r="E12">
         <v>0.68</v>
@@ -19710,7 +19850,8 @@
         <v>1500</v>
       </c>
       <c r="D13">
-        <v>26.9</v>
+        <f t="shared" si="3"/>
+        <v>-153.1</v>
       </c>
       <c r="E13">
         <v>0.68</v>
@@ -19736,7 +19877,8 @@
         <v>1750</v>
       </c>
       <c r="D14">
-        <v>1.75</v>
+        <f t="shared" si="3"/>
+        <v>-178.25</v>
       </c>
       <c r="E14">
         <v>0.69599999999999995</v>
@@ -19762,7 +19904,8 @@
         <v>2000</v>
       </c>
       <c r="D15">
-        <v>-1.96</v>
+        <f t="shared" si="3"/>
+        <v>-181.96</v>
       </c>
       <c r="E15">
         <v>0.70399999999999996</v>
@@ -19788,7 +19931,8 @@
         <v>2250</v>
       </c>
       <c r="D16">
-        <v>-1.1599999999999999</v>
+        <f t="shared" si="3"/>
+        <v>-181.16</v>
       </c>
       <c r="E16">
         <v>0.68</v>
@@ -19814,7 +19958,8 @@
         <v>2500</v>
       </c>
       <c r="D17">
-        <v>-5.41</v>
+        <f t="shared" si="3"/>
+        <v>-185.41</v>
       </c>
       <c r="E17">
         <v>0.68</v>
@@ -19840,7 +19985,8 @@
         <v>2750</v>
       </c>
       <c r="D18">
-        <v>-6.94</v>
+        <f t="shared" si="3"/>
+        <v>-186.94</v>
       </c>
       <c r="E18">
         <v>0.68799999999999994</v>
@@ -19866,7 +20012,8 @@
         <v>3000</v>
       </c>
       <c r="D19">
-        <v>-15.1</v>
+        <f t="shared" si="3"/>
+        <v>-195.1</v>
       </c>
       <c r="E19">
         <v>0.68799999999999994</v>
@@ -19892,7 +20039,8 @@
         <v>3250</v>
       </c>
       <c r="D20">
-        <v>-28.6</v>
+        <f t="shared" si="3"/>
+        <v>-208.6</v>
       </c>
       <c r="E20">
         <v>0.69599999999999995</v>
@@ -19918,7 +20066,8 @@
         <v>3500</v>
       </c>
       <c r="D21">
-        <v>-40.299999999999997</v>
+        <f t="shared" si="3"/>
+        <v>-220.3</v>
       </c>
       <c r="E21">
         <v>0.68</v>
@@ -19944,7 +20093,8 @@
         <v>3750</v>
       </c>
       <c r="D22">
-        <v>-56.7</v>
+        <f t="shared" si="3"/>
+        <v>-236.7</v>
       </c>
       <c r="E22">
         <v>0.70399999999999996</v>
@@ -19970,7 +20120,8 @@
         <v>4000</v>
       </c>
       <c r="D23">
-        <v>-77.099999999999994</v>
+        <f t="shared" si="3"/>
+        <v>-257.10000000000002</v>
       </c>
       <c r="E23">
         <v>0.68799999999999994</v>
@@ -19996,7 +20147,8 @@
         <v>4250</v>
       </c>
       <c r="D24">
-        <v>-90.6</v>
+        <f t="shared" si="3"/>
+        <v>-270.60000000000002</v>
       </c>
       <c r="E24">
         <v>0.68</v>
@@ -20022,7 +20174,8 @@
         <v>4500</v>
       </c>
       <c r="D25">
-        <v>-113</v>
+        <f t="shared" si="3"/>
+        <v>-293</v>
       </c>
       <c r="E25">
         <v>0.68799999999999994</v>
@@ -20048,7 +20201,8 @@
         <v>4750</v>
       </c>
       <c r="D26">
-        <v>-141</v>
+        <f t="shared" si="3"/>
+        <v>-321</v>
       </c>
       <c r="E26">
         <v>0.69599999999999995</v>
@@ -20074,7 +20228,8 @@
         <v>5000</v>
       </c>
       <c r="D27">
-        <v>-171</v>
+        <f t="shared" si="3"/>
+        <v>-351</v>
       </c>
       <c r="E27">
         <v>0.68</v>
@@ -20091,18 +20246,149 @@
         <v>-3.0253535066129826</v>
       </c>
     </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="D29">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="D30">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="D31">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="D32">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="33" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D33">
+        <v>49.2</v>
+      </c>
+    </row>
+    <row r="34" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D34">
+        <v>95.1</v>
+      </c>
+    </row>
+    <row r="35" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D35">
+        <v>45.4</v>
+      </c>
+    </row>
+    <row r="36" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D36">
+        <v>83.4</v>
+      </c>
+    </row>
+    <row r="37" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D37">
+        <v>44.6</v>
+      </c>
+    </row>
+    <row r="38" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D38">
+        <v>68.099999999999994</v>
+      </c>
+    </row>
+    <row r="39" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D39">
+        <v>50.5</v>
+      </c>
+    </row>
+    <row r="40" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D40">
+        <v>26.9</v>
+      </c>
+    </row>
+    <row r="41" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D41">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="42" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D42">
+        <v>-1.96</v>
+      </c>
+    </row>
+    <row r="43" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D43">
+        <v>-1.1599999999999999</v>
+      </c>
+    </row>
+    <row r="44" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D44">
+        <v>-5.41</v>
+      </c>
+    </row>
+    <row r="45" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D45">
+        <v>-6.94</v>
+      </c>
+    </row>
+    <row r="46" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D46">
+        <v>-15.1</v>
+      </c>
+    </row>
+    <row r="47" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D47">
+        <v>-28.6</v>
+      </c>
+    </row>
+    <row r="48" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D48">
+        <v>-40.299999999999997</v>
+      </c>
+    </row>
+    <row r="49" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D49">
+        <v>-56.7</v>
+      </c>
+    </row>
+    <row r="50" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D50">
+        <v>-77.099999999999994</v>
+      </c>
+    </row>
+    <row r="51" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D51">
+        <v>-90.6</v>
+      </c>
+    </row>
+    <row r="52" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D52">
+        <v>-113</v>
+      </c>
+    </row>
+    <row r="53" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D53">
+        <v>-141</v>
+      </c>
+    </row>
+    <row r="54" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D54">
+        <v>-171</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{359EBEEA-FFE2-49A3-A21A-CE8C8C366216}">
-  <dimension ref="B1:H27"/>
+  <dimension ref="B1:H36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -20607,7 +20893,8 @@
         <v>3250</v>
       </c>
       <c r="D20">
-        <v>163</v>
+        <f>-180*2+D29</f>
+        <v>-197</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -20633,7 +20920,8 @@
         <v>3500</v>
       </c>
       <c r="D21">
-        <v>135</v>
+        <f t="shared" ref="D21:D27" si="3">-180*2+D30</f>
+        <v>-225</v>
       </c>
       <c r="E21">
         <v>1.04</v>
@@ -20659,7 +20947,8 @@
         <v>3750</v>
       </c>
       <c r="D22">
-        <v>100</v>
+        <f t="shared" si="3"/>
+        <v>-260</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -20685,7 +20974,8 @@
         <v>4000</v>
       </c>
       <c r="D23">
-        <v>80.599999999999994</v>
+        <f t="shared" si="3"/>
+        <v>-279.39999999999998</v>
       </c>
       <c r="E23">
         <v>1.02</v>
@@ -20711,7 +21001,8 @@
         <v>4250</v>
       </c>
       <c r="D24">
-        <v>73.2</v>
+        <f t="shared" si="3"/>
+        <v>-286.8</v>
       </c>
       <c r="E24">
         <v>1.02</v>
@@ -20737,7 +21028,8 @@
         <v>4500</v>
       </c>
       <c r="D25">
-        <v>38.9</v>
+        <f t="shared" si="3"/>
+        <v>-321.10000000000002</v>
       </c>
       <c r="E25">
         <v>1.04</v>
@@ -20763,7 +21055,8 @@
         <v>4750</v>
       </c>
       <c r="D26">
-        <v>37.5</v>
+        <f t="shared" si="3"/>
+        <v>-322.5</v>
       </c>
       <c r="E26">
         <v>1.02</v>
@@ -20789,7 +21082,8 @@
         <v>5000</v>
       </c>
       <c r="D27">
-        <v>10.8</v>
+        <f t="shared" si="3"/>
+        <v>-349.2</v>
       </c>
       <c r="E27">
         <v>1</v>
@@ -20806,8 +21100,49 @@
         <v>-11.181818358695645</v>
       </c>
     </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="D29">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="D30">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="D31">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="D32">
+        <v>80.599999999999994</v>
+      </c>
+    </row>
+    <row r="33" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D33">
+        <v>73.2</v>
+      </c>
+    </row>
+    <row r="34" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D34">
+        <v>38.9</v>
+      </c>
+    </row>
+    <row r="35" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D35">
+        <v>37.5</v>
+      </c>
+    </row>
+    <row r="36" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D36">
+        <v>10.8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>